--- a/AngularFanAnimation/src/assets/i18n/LIANLI_Localization.xlsx
+++ b/AngularFanAnimation/src/assets/i18n/LIANLI_Localization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\Louis\LIANLI\src\angular\assets\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\Louis\NeverGiveUp\AngularFanAnimation\src\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC95C3D-3E6E-48DF-9316-5024B2CF3BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE8AF8B-94E5-41A0-A6C6-4CD45F3FE090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
   <si>
     <t>CN</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -687,6 +687,86 @@
   <si>
     <t>Static Colorful</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小精靈(吃豆子)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小精灵(吃豆子)</t>
+  </si>
+  <si>
+    <t>Spinning Teacups</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋轉咖啡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tornado</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍捲風</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staggered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交錯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan Sync</t>
+  </si>
+  <si>
+    <t>Scan Sync</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃描串聯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>競逐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contest Sync</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>競逐串聯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转咖啡</t>
+  </si>
+  <si>
+    <t>龙卷风</t>
+  </si>
+  <si>
+    <t>交错</t>
+  </si>
+  <si>
+    <t>扫描串联</t>
+  </si>
+  <si>
+    <t>竞逐</t>
+  </si>
+  <si>
+    <t>竞逐串联</t>
   </si>
 </sst>
 </file>
@@ -1353,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2233,46 +2313,102 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>

--- a/AngularFanAnimation/src/assets/i18n/LIANLI_Localization.xlsx
+++ b/AngularFanAnimation/src/assets/i18n/LIANLI_Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\Louis\NeverGiveUp\AngularFanAnimation\src\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE8AF8B-94E5-41A0-A6C6-4CD45F3FE090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54EBB1A-349E-447D-837D-9DE2BA2BAA62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
   <si>
     <t>CN</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -467,9 +467,6 @@
   </si>
   <si>
     <t>彩虹</t>
-  </si>
-  <si>
-    <t>彩虹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -478,9 +475,6 @@
   </si>
   <si>
     <t>定色</t>
-  </si>
-  <si>
-    <t>定色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -489,9 +483,6 @@
   </si>
   <si>
     <t>呼吸</t>
-  </si>
-  <si>
-    <t>呼吸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -518,18 +509,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>定色-缤纷</t>
-  </si>
-  <si>
-    <t>呼吸-缤纷</t>
-  </si>
-  <si>
-    <t>太极</t>
-  </si>
-  <si>
-    <t>颜色循环</t>
-  </si>
-  <si>
     <t>Voice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -558,9 +537,6 @@
   </si>
   <si>
     <t>跑道</t>
-  </si>
-  <si>
-    <t>跑道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -577,9 +553,6 @@
   </si>
   <si>
     <t>流星</t>
-  </si>
-  <si>
-    <t>流星</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -660,24 +633,6 @@
     <t>掃描</t>
   </si>
   <si>
-    <t>扫荡</t>
-  </si>
-  <si>
-    <t>覆盖循环</t>
-  </si>
-  <si>
-    <t>抽奖</t>
-  </si>
-  <si>
-    <t>弹簧</t>
-  </si>
-  <si>
-    <t>堆叠</t>
-  </si>
-  <si>
-    <t>扫描</t>
-  </si>
-  <si>
     <t>Wave</t>
   </si>
   <si>
@@ -697,9 +652,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小精灵(吃豆子)</t>
-  </si>
-  <si>
     <t>Spinning Teacups</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -751,29 +703,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>旋转咖啡</t>
-  </si>
-  <si>
-    <t>龙卷风</t>
-  </si>
-  <si>
-    <t>交错</t>
-  </si>
-  <si>
-    <t>扫描串联</t>
-  </si>
-  <si>
-    <t>竞逐</t>
-  </si>
-  <si>
-    <t>竞逐串联</t>
+    <t>ConnectError2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectError1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller connected now, restart L-Connect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControllerRestart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已连接，重新启动L-connect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If connected, please click [Controller connected now, restart L-Connect] to&lt;br&gt; restart L-Connect ; or click [Quit] to exit L-Connect.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若已连接请点击按钮「已连接，重新启动L-connect」;&lt;br&gt;
+若无则点选「离开」并关闭L-connect。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-Connect Error:&lt;br&gt;
+Controller is not detected. Please check the connection of your Controller.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-Connect 无法正常运行：&lt;br&gt;
+并未侦测到控制器，请确认是否已连接控制器。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -921,6 +902,17 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -954,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -988,13 +980,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,6 +1119,15 @@
     </xf>
     <xf numFmtId="49" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -1459,10 +1471,6 @@
       <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="str">
-        <f>UPPER(A1)</f>
-        <v>參數名稱</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -1475,10 +1483,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="21"/>
-      <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E10" si="0">UPPER(A2)</f>
-        <v>FAN_MODE_LIST</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
@@ -1491,10 +1496,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PREVIEW_SPEED</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -1507,10 +1509,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
-        <f>UPPER(A4)</f>
-        <v>PREVIEW_BRIGHTNESS</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
@@ -1523,10 +1522,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PREVIEW_DIRECTION</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -1539,10 +1535,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>LED_MODE</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
@@ -1555,10 +1548,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PREVIEW_DEFAULT</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
@@ -1571,10 +1561,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PREVIEW_APPLY</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -1587,10 +1574,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="1" t="str">
-        <f>UPPER(A9)</f>
-        <v>PREVIEW_APPLYALL</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
@@ -1603,10 +1587,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>ONOFF</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
@@ -1619,10 +1600,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="1" t="str">
-        <f t="shared" ref="E11" si="1">UPPER(A11)</f>
-        <v>FAN_MODE</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
@@ -1635,10 +1613,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="1" t="str">
-        <f t="shared" ref="E12:E17" si="2">UPPER(A12)</f>
-        <v>FAN_MODEF_LIST</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
@@ -1651,10 +1626,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -1667,10 +1639,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>RPM</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
@@ -1683,10 +1652,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>SYNCTIPMESSAGE</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
@@ -1699,10 +1665,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>INITEXPORTTIP</v>
-      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
@@ -1715,10 +1678,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>CONNECTERROR</v>
-      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
@@ -1731,10 +1691,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="1" t="str">
-        <f t="shared" ref="E18:E37" si="3">UPPER(A18)</f>
-        <v>DONOTSHOWAGAIN</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
@@ -1747,10 +1704,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>AUTORUNONBOOT</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
@@ -1763,10 +1717,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SETTINGS</v>
-      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
@@ -1779,10 +1730,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>GENERAL</v>
-      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
@@ -1795,10 +1743,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MOTHERBOARDSOFTWARESYNC</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
@@ -1811,10 +1756,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>APPLY_CLOSE</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
@@ -1827,10 +1769,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>EXPORT</v>
-      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
@@ -1843,10 +1782,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>IMPORT</v>
-      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
@@ -1859,10 +1795,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>HYPERLINK</v>
-      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
@@ -1875,10 +1808,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DEVICECONTROLLER</v>
-      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
@@ -1891,10 +1821,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NOTICE</v>
-      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
@@ -1907,10 +1834,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>TIPS</v>
-      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
@@ -1923,10 +1847,7 @@
         <v>72</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>VERSION</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
@@ -1939,10 +1860,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>GENERAL</v>
-      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
@@ -1955,10 +1873,7 @@
         <v>85</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>STATICMAX48TIP</v>
-      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
@@ -1968,470 +1883,420 @@
         <v>87</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>RAINBOW</v>
-      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f>UPPER(A34)</f>
-        <v>STATIC COLOR</v>
-      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>102</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>BREATHING COLOR</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>BREATHING COLORFUL</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>104</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>110</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>167</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>168</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>161</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>159</v>
+      </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
+      <c r="A66" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>154</v>
+      </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
+      <c r="A67" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>157</v>
+      </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">

--- a/AngularFanAnimation/src/assets/i18n/LIANLI_Localization.xlsx
+++ b/AngularFanAnimation/src/assets/i18n/LIANLI_Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\Louis\NeverGiveUp\AngularFanAnimation\src\assets\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-spy\UNI-Fan\src\angular\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54EBB1A-349E-447D-837D-9DE2BA2BAA62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17E320C-478A-4435-AF97-FB394ED419ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24765" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="多國字串表" sheetId="1" r:id="rId1"/>
@@ -731,15 +731,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>If connected, please click [Controller connected now, restart L-Connect] to&lt;br&gt; restart L-Connect ; or click [Quit] to exit L-Connect.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若已连接请点击按钮「已连接，重新启动L-connect」;&lt;br&gt;
-若无则点选「离开」并关闭L-connect。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>L-Connect Error:&lt;br&gt;
 Controller is not detected. Please check the connection of your Controller.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -747,6 +738,35 @@
   <si>
     <t>L-Connect 无法正常运行：&lt;br&gt;
 并未侦测到控制器，请确认是否已连接控制器。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If connected, please restart L-Connect ; or exit L-Connect.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若已连接请重新启动L-connect;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭L-connect。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +774,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -911,6 +931,11 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -997,7 +1022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1152,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2256,22 +2284,22 @@
         <v>152</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>151</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
     </row>
